--- a/Data/STIM2.xlsx
+++ b/Data/STIM2.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="19440" windowHeight="9765" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="315" windowWidth="19440" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Naming" sheetId="2" r:id="rId1"/>
     <sheet name="Memoire" sheetId="3" r:id="rId2"/>
+    <sheet name="Audio" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Order</t>
   </si>
@@ -33,6 +34,273 @@
   </si>
   <si>
     <t>Mémoire (Vu=2; pas vu=1)</t>
+  </si>
+  <si>
+    <t>Biologique(2) Non Biologique (1) Scrambled (0)</t>
+  </si>
+  <si>
+    <t>Animal (1) Non Animal (2) Scrambled (0)</t>
+  </si>
+  <si>
+    <t>NESSTI</t>
+  </si>
+  <si>
+    <t>mobile/immobile</t>
+  </si>
+  <si>
+    <t>humain/pas humain</t>
+  </si>
+  <si>
+    <t>social/pas social</t>
+  </si>
+  <si>
+    <t>civilisation/nature</t>
+  </si>
+  <si>
+    <t>animal/pas animal</t>
+  </si>
+  <si>
+    <t>bébé</t>
+  </si>
+  <si>
+    <t>abeille</t>
+  </si>
+  <si>
+    <t>vélo</t>
+  </si>
+  <si>
+    <t>balai</t>
+  </si>
+  <si>
+    <t>oiseau (piou)</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>canari</t>
+  </si>
+  <si>
+    <t>cannon</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>chaise</t>
+  </si>
+  <si>
+    <t>poulet</t>
+  </si>
+  <si>
+    <t>raclement de gorge</t>
+  </si>
+  <si>
+    <t>horloge tic tac</t>
+  </si>
+  <si>
+    <t>pièce</t>
+  </si>
+  <si>
+    <t>vache</t>
+  </si>
+  <si>
+    <t>criquet</t>
+  </si>
+  <si>
+    <t>corbeau</t>
+  </si>
+  <si>
+    <t>couverts</t>
+  </si>
+  <si>
+    <t>chien</t>
+  </si>
+  <si>
+    <t>âne</t>
+  </si>
+  <si>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>tambour</t>
+  </si>
+  <si>
+    <t>cannard</t>
+  </si>
+  <si>
+    <t>éléphant</t>
+  </si>
+  <si>
+    <t>feu</t>
+  </si>
+  <si>
+    <t>alarme incendie</t>
+  </si>
+  <si>
+    <t>camion de pompier</t>
+  </si>
+  <si>
+    <t>flute</t>
+  </si>
+  <si>
+    <t>mouche</t>
+  </si>
+  <si>
+    <t>pas</t>
+  </si>
+  <si>
+    <t>grenouille</t>
+  </si>
+  <si>
+    <t>gargouillis</t>
+  </si>
+  <si>
+    <t>gong</t>
+  </si>
+  <si>
+    <t>oie</t>
+  </si>
+  <si>
+    <t>guitare</t>
+  </si>
+  <si>
+    <t>hélicoptère</t>
+  </si>
+  <si>
+    <t>cheval</t>
+  </si>
+  <si>
+    <t>martin chasseur</t>
+  </si>
+  <si>
+    <t>rire</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mitraillette</t>
+  </si>
+  <si>
+    <t>maracas</t>
+  </si>
+  <si>
+    <t>allumette</t>
+  </si>
+  <si>
+    <t>singe</t>
+  </si>
+  <si>
+    <t>moustique</t>
+  </si>
+  <si>
+    <t>boite à musique</t>
+  </si>
+  <si>
+    <t>pinçon</t>
+  </si>
+  <si>
+    <t>océan</t>
+  </si>
+  <si>
+    <t>chouette</t>
+  </si>
+  <si>
+    <t>papier</t>
+  </si>
+  <si>
+    <t>perroquet</t>
+  </si>
+  <si>
+    <t>stylo</t>
+  </si>
+  <si>
+    <t>téléphone</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>cochon</t>
+  </si>
+  <si>
+    <t>pigeon</t>
+  </si>
+  <si>
+    <t>avion</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>pluie</t>
+  </si>
+  <si>
+    <t>rivière</t>
+  </si>
+  <si>
+    <t>coq</t>
+  </si>
+  <si>
+    <t>saxophone</t>
+  </si>
+  <si>
+    <t>mouton</t>
+  </si>
+  <si>
+    <t>éternuement</t>
+  </si>
+  <si>
+    <t>ronflement</t>
+  </si>
+  <si>
+    <t>tambourin</t>
+  </si>
+  <si>
+    <t>chasse d'eau</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>trompette</t>
+  </si>
+  <si>
+    <t>dinde</t>
+  </si>
+  <si>
+    <t>aspirateur</t>
+  </si>
+  <si>
+    <t>bulles</t>
+  </si>
+  <si>
+    <t>fouet</t>
+  </si>
+  <si>
+    <t>sifflet</t>
+  </si>
+  <si>
+    <t>sifflement humain</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>carrillon</t>
+  </si>
+  <si>
+    <t>loup</t>
+  </si>
+  <si>
+    <t>baillement</t>
+  </si>
+  <si>
+    <t>biologique (2)/pas biologique (1)</t>
   </si>
 </sst>
 </file>
@@ -379,21 +647,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +682,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,8 +706,14 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -443,8 +729,14 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -460,8 +752,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -477,8 +775,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -494,8 +798,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -511,8 +821,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -528,8 +844,14 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -545,8 +867,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -562,8 +890,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -579,8 +913,14 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -596,8 +936,14 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -613,8 +959,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -630,8 +982,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -647,8 +1005,14 @@
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -664,8 +1028,14 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -681,8 +1051,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -698,8 +1074,14 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -715,8 +1097,14 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -732,8 +1120,14 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -749,8 +1143,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -766,8 +1166,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -783,8 +1189,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -800,8 +1212,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -817,8 +1235,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -834,8 +1258,14 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -851,8 +1281,14 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -868,8 +1304,14 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -885,8 +1327,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -902,8 +1350,14 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -919,8 +1373,14 @@
       <c r="E31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -936,8 +1396,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -953,8 +1419,14 @@
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -970,8 +1442,14 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -987,8 +1465,14 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1004,8 +1488,14 @@
       <c r="E36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1021,8 +1511,14 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1038,8 +1534,14 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1055,8 +1557,14 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1072,8 +1580,14 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1089,8 +1603,14 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1106,8 +1626,14 @@
       <c r="E42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1123,8 +1649,14 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1140,8 +1672,14 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1157,8 +1695,14 @@
       <c r="E45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1174,8 +1718,14 @@
       <c r="E46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1191,8 +1741,14 @@
       <c r="E47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1208,8 +1764,14 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1225,8 +1787,14 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1242,8 +1810,14 @@
       <c r="E50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1259,8 +1833,14 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1276,8 +1856,14 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1293,8 +1879,14 @@
       <c r="E53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1310,8 +1902,14 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1327,8 +1925,14 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1344,8 +1948,14 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1361,8 +1971,14 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1378,8 +1994,14 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1395,8 +2017,14 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1412,8 +2040,14 @@
       <c r="E60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1429,8 +2063,14 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1446,8 +2086,14 @@
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1463,8 +2109,14 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1480,8 +2132,14 @@
       <c r="E64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1497,8 +2155,14 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1514,8 +2178,14 @@
       <c r="E66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1531,8 +2201,14 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1548,8 +2224,14 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1565,8 +2247,14 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1582,8 +2270,14 @@
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1599,8 +2293,14 @@
       <c r="E71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1616,8 +2316,14 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1633,8 +2339,14 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1650,8 +2362,14 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1667,8 +2385,14 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1684,8 +2408,14 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1701,8 +2431,14 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1718,8 +2454,14 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1735,8 +2477,14 @@
       <c r="E79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1752,8 +2500,14 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1769,8 +2523,14 @@
       <c r="E81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1786,8 +2546,14 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1803,8 +2569,14 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1820,8 +2592,14 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1837,8 +2615,14 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1854,8 +2638,14 @@
       <c r="E86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1871,8 +2661,14 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1888,8 +2684,14 @@
       <c r="E88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1905,8 +2707,14 @@
       <c r="E89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1922,8 +2730,14 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1939,8 +2753,14 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1956,8 +2776,14 @@
       <c r="E92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1973,8 +2799,14 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1990,8 +2822,14 @@
       <c r="E94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2007,8 +2845,14 @@
       <c r="E95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2024,8 +2868,14 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2041,8 +2891,14 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2058,8 +2914,14 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2075,8 +2937,14 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2092,8 +2960,14 @@
       <c r="E100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2109,8 +2983,14 @@
       <c r="E101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2126,8 +3006,14 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2143,8 +3029,14 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2160,8 +3052,14 @@
       <c r="E104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2177,8 +3075,14 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2194,8 +3098,14 @@
       <c r="E106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2211,8 +3121,14 @@
       <c r="E107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2228,8 +3144,14 @@
       <c r="E108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2245,8 +3167,14 @@
       <c r="E109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2262,8 +3190,14 @@
       <c r="E110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2279,8 +3213,14 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2296,8 +3236,14 @@
       <c r="E112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2313,8 +3259,14 @@
       <c r="E113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2330,8 +3282,14 @@
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2347,8 +3305,14 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2364,8 +3328,14 @@
       <c r="E116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2381,8 +3351,14 @@
       <c r="E117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2398,8 +3374,14 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2415,8 +3397,14 @@
       <c r="E119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2432,8 +3420,14 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2448,6 +3442,12 @@
       </c>
       <c r="E121">
         <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3121,4 +4121,2135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I81">
+    <sortCondition ref="A2:A81"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>